--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H2">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I2">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J2">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.617228</v>
+        <v>11.631874</v>
       </c>
       <c r="N2">
-        <v>31.851684</v>
+        <v>34.895622</v>
       </c>
       <c r="O2">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="P2">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="Q2">
-        <v>1.869718624332</v>
+        <v>1.144347641411333</v>
       </c>
       <c r="R2">
-        <v>16.827467618988</v>
+        <v>10.299128772702</v>
       </c>
       <c r="S2">
-        <v>0.005760415795196558</v>
+        <v>0.003380805082925232</v>
       </c>
       <c r="T2">
-        <v>0.005760415795196557</v>
+        <v>0.003380805082925232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H3">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I3">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J3">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>94.707437</v>
       </c>
       <c r="O3">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="P3">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="Q3">
-        <v>5.559400213239889</v>
+        <v>3.105783073735222</v>
       </c>
       <c r="R3">
-        <v>50.03460191915899</v>
+        <v>27.952047663617</v>
       </c>
       <c r="S3">
-        <v>0.01712795518181654</v>
+        <v>0.009175574643730986</v>
       </c>
       <c r="T3">
-        <v>0.01712795518181653</v>
+        <v>0.009175574643730984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H4">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I4">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J4">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.961284333333333</v>
+        <v>26.569537</v>
       </c>
       <c r="N4">
-        <v>23.883853</v>
+        <v>79.708611</v>
       </c>
       <c r="O4">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="P4">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="Q4">
-        <v>1.402000747430111</v>
+        <v>2.613919906572333</v>
       </c>
       <c r="R4">
-        <v>12.618006726871</v>
+        <v>23.525279159151</v>
       </c>
       <c r="S4">
-        <v>0.004319423866924985</v>
+        <v>0.007722437995852604</v>
       </c>
       <c r="T4">
-        <v>0.004319423866924984</v>
+        <v>0.007722437995852603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H5">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I5">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J5">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.778265</v>
+        <v>3.901689333333334</v>
       </c>
       <c r="N5">
-        <v>8.334795</v>
+        <v>11.705068</v>
       </c>
       <c r="O5">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="P5">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="Q5">
-        <v>0.4892589491183333</v>
+        <v>0.3838494971764445</v>
       </c>
       <c r="R5">
-        <v>4.403330542065</v>
+        <v>3.454645474588</v>
       </c>
       <c r="S5">
-        <v>0.001507357814039763</v>
+        <v>0.001134026308239626</v>
       </c>
       <c r="T5">
-        <v>0.001507357814039763</v>
+        <v>0.001134026308239626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H6">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I6">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J6">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.542853</v>
+        <v>15.01682666666667</v>
       </c>
       <c r="N6">
-        <v>58.628559</v>
+        <v>45.05048000000001</v>
       </c>
       <c r="O6">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="P6">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="Q6">
-        <v>3.441542013290333</v>
+        <v>1.477360413075556</v>
       </c>
       <c r="R6">
-        <v>30.973878119613</v>
+        <v>13.29624371768</v>
       </c>
       <c r="S6">
-        <v>0.01060304620983975</v>
+        <v>0.004364641838802056</v>
       </c>
       <c r="T6">
-        <v>0.01060304620983975</v>
+        <v>0.004364641838802056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.057822</v>
       </c>
       <c r="I7">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J7">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.617228</v>
+        <v>11.631874</v>
       </c>
       <c r="N7">
-        <v>31.851684</v>
+        <v>34.895622</v>
       </c>
       <c r="O7">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="P7">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="Q7">
-        <v>17.900016452472</v>
+        <v>19.61064940614267</v>
       </c>
       <c r="R7">
-        <v>161.100148072248</v>
+        <v>176.495844655284</v>
       </c>
       <c r="S7">
-        <v>0.05514815767743498</v>
+        <v>0.05793674998096185</v>
       </c>
       <c r="T7">
-        <v>0.05514815767743498</v>
+        <v>0.05793674998096185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.057822</v>
       </c>
       <c r="I8">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J8">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>94.707437</v>
       </c>
       <c r="O8">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="P8">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="Q8">
         <v>53.22370649135711</v>
@@ -948,10 +948,10 @@
         <v>479.013358422214</v>
       </c>
       <c r="S8">
-        <v>0.1639769083763904</v>
+        <v>0.1572415330154222</v>
       </c>
       <c r="T8">
-        <v>0.1639769083763904</v>
+        <v>0.1572415330154222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.057822</v>
       </c>
       <c r="I9">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J9">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.961284333333333</v>
+        <v>26.569537</v>
       </c>
       <c r="N9">
-        <v>23.883853</v>
+        <v>79.708611</v>
       </c>
       <c r="O9">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="P9">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="Q9">
-        <v>13.42225301646289</v>
+        <v>44.79466292280466</v>
       </c>
       <c r="R9">
-        <v>120.800277148166</v>
+        <v>403.151966305242</v>
       </c>
       <c r="S9">
-        <v>0.04135261706064516</v>
+        <v>0.1323391761532935</v>
       </c>
       <c r="T9">
-        <v>0.04135261706064516</v>
+        <v>0.1323391761532935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.057822</v>
       </c>
       <c r="I10">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J10">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.778265</v>
+        <v>3.901689333333334</v>
       </c>
       <c r="N10">
-        <v>8.334795</v>
+        <v>11.705068</v>
       </c>
       <c r="O10">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="P10">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="Q10">
-        <v>4.683989946276666</v>
+        <v>6.578016715766222</v>
       </c>
       <c r="R10">
-        <v>42.15590951649</v>
+        <v>59.202150441896</v>
       </c>
       <c r="S10">
-        <v>0.01443090383758349</v>
+        <v>0.01943377304540258</v>
       </c>
       <c r="T10">
-        <v>0.01443090383758349</v>
+        <v>0.01943377304540258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.057822</v>
       </c>
       <c r="I11">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J11">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.542853</v>
+        <v>15.01682666666667</v>
       </c>
       <c r="N11">
-        <v>58.628559</v>
+        <v>45.05048000000001</v>
       </c>
       <c r="O11">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="P11">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="Q11">
-        <v>32.94809061538867</v>
+        <v>25.31747876161778</v>
       </c>
       <c r="R11">
-        <v>296.532815538498</v>
+        <v>227.85730885456</v>
       </c>
       <c r="S11">
-        <v>0.101509766834708</v>
+        <v>0.07479672940870125</v>
       </c>
       <c r="T11">
-        <v>0.101509766834708</v>
+        <v>0.07479672940870125</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H12">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I12">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J12">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.617228</v>
+        <v>11.631874</v>
       </c>
       <c r="N12">
-        <v>31.851684</v>
+        <v>34.895622</v>
       </c>
       <c r="O12">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="P12">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="Q12">
-        <v>14.874226801056</v>
+        <v>2.828150580612</v>
       </c>
       <c r="R12">
-        <v>133.868041209504</v>
+        <v>25.453355225508</v>
       </c>
       <c r="S12">
-        <v>0.0458260028493596</v>
+        <v>0.008355350692573463</v>
       </c>
       <c r="T12">
-        <v>0.04582600284935959</v>
+        <v>0.008355350692573463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H13">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I13">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J13">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>94.707437</v>
       </c>
       <c r="O13">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="P13">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="Q13">
-        <v>44.226857760008</v>
+        <v>7.675658939102</v>
       </c>
       <c r="R13">
-        <v>398.0417198400719</v>
+        <v>69.08093045191799</v>
       </c>
       <c r="S13">
-        <v>0.136258518633349</v>
+        <v>0.02267659390996979</v>
       </c>
       <c r="T13">
-        <v>0.136258518633349</v>
+        <v>0.02267659390996979</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H14">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I14">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J14">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.961284333333333</v>
+        <v>26.569537</v>
       </c>
       <c r="N14">
-        <v>23.883853</v>
+        <v>79.708611</v>
       </c>
       <c r="O14">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="P14">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="Q14">
-        <v>11.153377209352</v>
+        <v>6.460064087106</v>
       </c>
       <c r="R14">
-        <v>100.380394884168</v>
+        <v>58.140576783954</v>
       </c>
       <c r="S14">
-        <v>0.0343624379681679</v>
+        <v>0.0190852995290618</v>
       </c>
       <c r="T14">
-        <v>0.03436243796816789</v>
+        <v>0.0190852995290618</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H15">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I15">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J15">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.778265</v>
+        <v>3.901689333333334</v>
       </c>
       <c r="N15">
-        <v>8.334795</v>
+        <v>11.705068</v>
       </c>
       <c r="O15">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="P15">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="Q15">
-        <v>3.892215908279999</v>
+        <v>0.948648941128</v>
       </c>
       <c r="R15">
-        <v>35.02994317452</v>
+        <v>8.537840470152</v>
       </c>
       <c r="S15">
-        <v>0.01199152733710494</v>
+        <v>0.002802642349244254</v>
       </c>
       <c r="T15">
-        <v>0.01199152733710494</v>
+        <v>0.002802642349244254</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H16">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I16">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J16">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.542853</v>
+        <v>15.01682666666667</v>
       </c>
       <c r="N16">
-        <v>58.628559</v>
+        <v>45.05048000000001</v>
       </c>
       <c r="O16">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="P16">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="Q16">
-        <v>27.378598996056</v>
+        <v>3.65116120208</v>
       </c>
       <c r="R16">
-        <v>246.407390964504</v>
+        <v>32.86045081872</v>
       </c>
       <c r="S16">
-        <v>0.08435072104155773</v>
+        <v>0.01078681329333425</v>
       </c>
       <c r="T16">
-        <v>0.08435072104155772</v>
+        <v>0.01078681329333425</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H17">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I17">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J17">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.617228</v>
+        <v>11.631874</v>
       </c>
       <c r="N17">
-        <v>31.851684</v>
+        <v>34.895622</v>
       </c>
       <c r="O17">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="P17">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="Q17">
-        <v>8.827265992403998</v>
+        <v>7.678203904691335</v>
       </c>
       <c r="R17">
-        <v>79.44539393163599</v>
+        <v>69.10383514222201</v>
       </c>
       <c r="S17">
-        <v>0.02719592231115112</v>
+        <v>0.02268411263268038</v>
       </c>
       <c r="T17">
-        <v>0.02719592231115112</v>
+        <v>0.02268411263268038</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H18">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I18">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J18">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>94.707437</v>
       </c>
       <c r="O18">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="P18">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="Q18">
-        <v>26.24689287567478</v>
+        <v>20.83880357761522</v>
       </c>
       <c r="R18">
-        <v>236.222035881073</v>
+        <v>187.549232198537</v>
       </c>
       <c r="S18">
-        <v>0.08086404784564102</v>
+        <v>0.06156514900523857</v>
       </c>
       <c r="T18">
-        <v>0.08086404784564102</v>
+        <v>0.06156514900523856</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H19">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I19">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J19">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.961284333333333</v>
+        <v>26.569537</v>
       </c>
       <c r="N19">
-        <v>23.883853</v>
+        <v>79.708611</v>
       </c>
       <c r="O19">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="P19">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="Q19">
-        <v>6.619088753815221</v>
+        <v>17.53856023021234</v>
       </c>
       <c r="R19">
-        <v>59.57179878433699</v>
+        <v>157.847042071911</v>
       </c>
       <c r="S19">
-        <v>0.02039274942822343</v>
+        <v>0.05181507037526101</v>
       </c>
       <c r="T19">
-        <v>0.02039274942822343</v>
+        <v>0.051815070375261</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H20">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I20">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J20">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.778265</v>
+        <v>3.901689333333334</v>
       </c>
       <c r="N20">
-        <v>8.334795</v>
+        <v>11.705068</v>
       </c>
       <c r="O20">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="P20">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="Q20">
-        <v>2.309876377561666</v>
+        <v>2.575506429496445</v>
       </c>
       <c r="R20">
-        <v>20.788887398055</v>
+        <v>23.179557865468</v>
       </c>
       <c r="S20">
-        <v>0.007116497743082305</v>
+        <v>0.007608951085187216</v>
       </c>
       <c r="T20">
-        <v>0.007116497743082305</v>
+        <v>0.007608951085187214</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H21">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I21">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J21">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.542853</v>
+        <v>15.01682666666667</v>
       </c>
       <c r="N21">
-        <v>58.628559</v>
+        <v>45.05048000000001</v>
       </c>
       <c r="O21">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="P21">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="Q21">
-        <v>16.24811689844567</v>
+        <v>9.912612288275557</v>
       </c>
       <c r="R21">
-        <v>146.233052086011</v>
+        <v>89.21351059448001</v>
       </c>
       <c r="S21">
-        <v>0.05005882061930351</v>
+        <v>0.02928534022051004</v>
       </c>
       <c r="T21">
-        <v>0.05005882061930351</v>
+        <v>0.02928534022051003</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H22">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I22">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J22">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.617228</v>
+        <v>11.631874</v>
       </c>
       <c r="N22">
-        <v>31.851684</v>
+        <v>34.895622</v>
       </c>
       <c r="O22">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="P22">
-        <v>0.1465076214340919</v>
+        <v>0.1311534065049682</v>
       </c>
       <c r="Q22">
-        <v>4.082288775239999</v>
+        <v>13.13194761207934</v>
       </c>
       <c r="R22">
-        <v>36.74059897716</v>
+        <v>118.187528508714</v>
       </c>
       <c r="S22">
-        <v>0.01257712280094959</v>
+        <v>0.03879638811582731</v>
       </c>
       <c r="T22">
-        <v>0.01257712280094959</v>
+        <v>0.03879638811582731</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H23">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I23">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J23">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>94.707437</v>
       </c>
       <c r="O23">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="P23">
-        <v>0.4356241047408703</v>
+        <v>0.3559530471732147</v>
       </c>
       <c r="Q23">
-        <v>12.13823127834778</v>
+        <v>35.64037635317989</v>
       </c>
       <c r="R23">
-        <v>109.24408150513</v>
+        <v>320.763387178619</v>
       </c>
       <c r="S23">
-        <v>0.03739667470367335</v>
+        <v>0.1052941965988531</v>
       </c>
       <c r="T23">
-        <v>0.03739667470367334</v>
+        <v>0.1052941965988531</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H24">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I24">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J24">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.961284333333333</v>
+        <v>26.569537</v>
       </c>
       <c r="N24">
-        <v>23.883853</v>
+        <v>79.708611</v>
       </c>
       <c r="O24">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="P24">
-        <v>0.1098581316363524</v>
+        <v>0.2995807285059823</v>
       </c>
       <c r="Q24">
-        <v>3.061087288552222</v>
+        <v>29.99600648710634</v>
       </c>
       <c r="R24">
-        <v>27.54978559697</v>
+        <v>269.964058383957</v>
       </c>
       <c r="S24">
-        <v>0.009430903312390904</v>
+        <v>0.08861874445251333</v>
       </c>
       <c r="T24">
-        <v>0.009430903312390901</v>
+        <v>0.08861874445251333</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H25">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I25">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J25">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.778265</v>
+        <v>3.901689333333334</v>
       </c>
       <c r="N25">
-        <v>8.334795</v>
+        <v>11.705068</v>
       </c>
       <c r="O25">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="P25">
-        <v>0.03833740754776926</v>
+        <v>0.04399289806533024</v>
       </c>
       <c r="Q25">
-        <v>1.068233631616667</v>
+        <v>4.404860293701779</v>
       </c>
       <c r="R25">
-        <v>9.61410268455</v>
+        <v>39.643742643316</v>
       </c>
       <c r="S25">
-        <v>0.003291120815958763</v>
+        <v>0.01301350527725657</v>
       </c>
       <c r="T25">
-        <v>0.003291120815958762</v>
+        <v>0.01301350527725657</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H26">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I26">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J26">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.542853</v>
+        <v>15.01682666666667</v>
       </c>
       <c r="N26">
-        <v>58.628559</v>
+        <v>45.05048000000001</v>
       </c>
       <c r="O26">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="P26">
-        <v>0.2696727346409163</v>
+        <v>0.1693199197505046</v>
       </c>
       <c r="Q26">
-        <v>7.514161835656667</v>
+        <v>16.95343167286223</v>
       </c>
       <c r="R26">
-        <v>67.62745652091</v>
+        <v>152.58088505576</v>
       </c>
       <c r="S26">
-        <v>0.02315037993550729</v>
+        <v>0.05008639498915698</v>
       </c>
       <c r="T26">
-        <v>0.02315037993550728</v>
+        <v>0.05008639498915698</v>
       </c>
     </row>
   </sheetData>
